--- a/cam/W25Q-BRD-20221204-CPL.xlsx
+++ b/cam/W25Q-BRD-20221204-CPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AG\Documents\KiCad\6.0\projects\W25Q-BRD\cam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F98A2F82-8DE8-4B44-A639-F6FF3F2CA997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1803E1-37B6-43B0-BB96-DC66DBA24FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6264" yWindow="5328" windowWidth="16188" windowHeight="18684" xr2:uid="{A286A92C-E2D3-4A5B-8C9A-7AE0F364EB35}"/>
+    <workbookView xWindow="6960" yWindow="6024" windowWidth="16188" windowHeight="18684" xr2:uid="{A286A92C-E2D3-4A5B-8C9A-7AE0F364EB35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,12 +46,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
-    <t>PosX</t>
-  </si>
-  <si>
-    <t>PosY</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -77,6 +71,12 @@
   </si>
   <si>
     <t>Layer</t>
+  </si>
+  <si>
+    <t>MidX</t>
+  </si>
+  <si>
+    <t>MidY</t>
   </si>
 </sst>
 </file>
@@ -112,9 +112,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -162,8 +161,8 @@
   <autoFilter ref="A1:E6" xr:uid="{CA214FC2-F3A3-46DD-AA5D-4A8B4E229D70}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{EE094B68-E9E3-444C-9F59-5E16221E3E92}" uniqueName="1" name="Designator" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{3C9A9326-27DB-4FBF-B93D-BD4CB248FA0D}" uniqueName="4" name="PosX" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{ECBDA123-6C30-4505-B14D-C12DA1D0D49F}" uniqueName="5" name="PosY" queryTableFieldId="5"/>
+    <tableColumn id="4" xr3:uid="{3C9A9326-27DB-4FBF-B93D-BD4CB248FA0D}" uniqueName="4" name="MidX" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{ECBDA123-6C30-4505-B14D-C12DA1D0D49F}" uniqueName="5" name="MidY" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{C52BE091-AC37-40EC-94D1-F5AD70351E76}" uniqueName="6" name="Rotation" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{16E36835-46C1-4E57-B9FF-D87C93C8D439}" uniqueName="7" name="Layer" queryTableFieldId="7" dataDxfId="0"/>
   </tableColumns>
@@ -471,7 +470,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,24 +484,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" t="s">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>143</v>
@@ -513,13 +512,13 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
+      <c r="E2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3">
         <v>143</v>
@@ -530,13 +529,13 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
+      <c r="E3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
       <c r="B4">
         <v>139</v>
@@ -547,13 +546,13 @@
       <c r="D4">
         <v>180</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>3</v>
+      <c r="E4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
       <c r="B5">
         <v>139</v>
@@ -564,13 +563,13 @@
       <c r="D5">
         <v>180</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
+      <c r="E5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
       <c r="B6">
         <v>141</v>
@@ -579,10 +578,10 @@
         <v>-101</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>3</v>
+        <v>270</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
